--- a/mbs-perturbation/bottleneck/decisionTree/smote/bottleneck-decisionTree-smote-results.xlsx
+++ b/mbs-perturbation/bottleneck/decisionTree/smote/bottleneck-decisionTree-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5414507772020726</v>
+        <v>0.5761194029850746</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9720930232558139</v>
+        <v>0.9846938775510204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6955074875207987</v>
+        <v>0.7269303201506591</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5633423472147107</v>
+        <v>0.6260858189429618</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7620817843866171</v>
+        <v>0.9330143540669856</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9534883720930233</v>
+        <v>0.9948979591836735</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8471074380165289</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="E3" t="n">
-        <v>0.84730124391563</v>
+        <v>0.9448063840920984</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8771186440677966</v>
+        <v>0.9368932038834952</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9627906976744186</v>
+        <v>0.9897435897435898</v>
       </c>
       <c r="D4" t="n">
-        <v>0.917960088691796</v>
+        <v>0.9625935162094763</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9851054624121147</v>
+        <v>0.9754840397697541</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.8909952606635071</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.9641025641025641</v>
       </c>
       <c r="D5" t="n">
-        <v>0.988235294117647</v>
+        <v>0.9261083743842364</v>
       </c>
       <c r="E5" t="n">
-        <v>0.998539751216874</v>
+        <v>0.9826268969126112</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9369369369369369</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9674418604651163</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9519450800915331</v>
+        <v>0.9843749999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9941049215792319</v>
+        <v>0.9947140039447732</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8235176285186846</v>
+        <v>0.8674044443198123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9665116279069768</v>
+        <v>0.9805337519623235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8801510776876608</v>
+        <v>0.9125940347414669</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8776787452677123</v>
+        <v>0.9047434287324396</v>
       </c>
     </row>
   </sheetData>
